--- a/Logs/Log_Output.xlsx
+++ b/Logs/Log_Output.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Query</t>
   </si>
@@ -32,9 +31,6 @@
     <t xml:space="preserve">Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Detail Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comparison</t>
   </si>
   <si>
@@ -47,13 +43,50 @@
     <t xml:space="preserve">Elasticsearch</t>
   </si>
   <si>
-    <t xml:space="preserve">The Elasticsearch query uses aggregations to perform a date histogram on the 'timestamp' field with a 'calendar_interval' of 'day.' Within this aggregation, a filter is applied to count the occurrences where 'severity' is 'ERROR.' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Elasticsearch query uses the date_histogram aggregation to group the logs by day and the count aggregation to count the number of logs per day. The term filter is used to filter the results to only include errors.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Elasticsearch query uses aggregations to perform a date histogram on the 'timestamp' field with a 'calendar_interval' of 'day.' Within this aggregation, a filter is applied to count the occurrences where 'severity' is 'ERROR.' 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The Elasticsearch query uses the date_histogram aggregation to group the logs by day and the count aggregation to count the number of logs per day. The term filter is used to filter the results to only include errors.
 The execution time of the Elasticsearch query is very fast, at only 3.78 seconds. This is because Elasticsearch is optimized for aggregations and can quickly group and count large amounts of data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">This SQL query calculates the count of log entries with severity 'ERROR' per day using the DATE_TRUNC function.  Indexing is used
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 The PostgreSQL query is more complex than the Elasticsearch query. It uses the DATE_TRUNC function to group the logs by day, the COUNT(*) function to count the number of logs per day, and the ORDER BY clause to order the results by day.
 The execution time of the PostgreSQL query is much slower than the Elasticsearch query, at 9.37 seconds. This is because PostgreSQL is not optimized for text search and has to scan the entire parsed_logs table to find the matching logs.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -74,56 +107,10 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PostgreSQL </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(With Index)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">This SQL query calculates the count of log entries with severity 'ERROR' per day using the DATE_TRUNC function.  Indexing is used</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PostgreSQL </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Without Index)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">This SQL query calculates the count of log entries with severity 'ERROR' per day using the DATE_TRUNC function.  Indexing is not used</t>
+    <t xml:space="preserve">PostgreSQL (With Index)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL (Without Index)</t>
   </si>
   <si>
     <r>
@@ -176,21 +163,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Benefits of using an index
-Using an index in a PostgreSQL query can significantly improve the performance of the query. This is because the index allows the database to quickly find the matching rows without having to scan the entire table.
-Benefits of using an index in PostgreSQL:
-    Reduced resource usage: Indexes can reduce the amount of resources that are used by queries, such as CPU and memory.
-    Simplified queries: Indexes can make queries more straightforward and easier to write.
-    Faster Query Performance: As seen from the execution times, the query with the index is about 10 times faster than the query without an index. Indexes are essential for improving the performance of queries that involve filtering, grouping, and sorting.
-    Reduced Disk I/O: With an index, the database engine needs to read fewer data pages from disk, reducing the disk I/O operations. This can lead to improved overall database performance, especially when dealing with large datasets.
-    Optimized Aggregation: In both queries, the GROUP BY clause requires the database to aggregate data based on 'log_date.' An index on the 'timestamp' column can speed up this aggregation process.
-    Efficient Sorting: The ORDER BY clause sorts the result set based on 'log_date.' With an index, PostgreSQL can utilize the index's ordered structure to sort the data more efficiently.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{'size': 0, 'query': {'range': {'timestamp': {'gte': '2015-08-01 15:00:00,000', 'lte': '2017-08-11 20:00:00,800'}}}, 'aggs': {'top_log_sources': {'terms': {'field': 'log_source', 'size': 5, 'order': {'_count': 'desc'}}}}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Elasticsearch query is using aggregations to find the top log sources within a specified timestamp range.</t>
   </si>
   <si>
     <r>
@@ -281,7 +254,61 @@
     <t xml:space="preserve">Elasticsearch query is a better choice because it is faster and more efficient. The PostgreSQL query with an index is also a good choice, but it is not as fast as the Elasticsearch query. The PostgreSQL query without an index is very slow and should not be used for this use case.</t>
   </si>
   <si>
-    <t xml:space="preserve">This Elasticsearch query uses aggregations to count log entries for each "log_source" and sorts them in descending order.</t>
+    <t xml:space="preserve">{'size': 0, 'aggs': {'log_count_per_source': {'terms': {'field': 'log_source', 'size': 100, 'order': {'_count': 'desc'}}}}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PostgreSQL query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The PostgreSQL query uses the GROUP BY clause to group the logs by log source and the COUNT(*) function to count the number of logs per log source. The ORDER BY clause is used to order the results by the number of logs in descending order.
+The execution time of the PostgreSQL query is very slow, at 91.93 seconds. This is because PostgreSQL is not optimized for aggregations and has to scan the entire parsed_logs table to find the matching logs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Elasticsearch query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The Elasticsearch query uses the terms aggregation to group the logs by log source and to count the number of logs per log source. The order parameter is used to order the results by the number of logs in descending order.
+The execution time of the Elasticsearch query is very fast because Elasticsearch is optimized for aggregations and can quickly group and count large amounts of data.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In this case, the Elasticsearch query is a better choice because it is faster and more efficient. The PostgreSQL query is more complex and would only be necessary if you needed to perform more complex analysis on the log</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -295,13 +322,72 @@
     <t xml:space="preserve">PostgreSQL</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a SQL query that counts the number of log entries for each "log_source" within a specified timestamp range. The query involves grouping and ordering the results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'size': 10000, 'query': {'term': {'log_source': 'org.apache.hadoop.hdfs.server.datanode.DataNode'}}, '_source': ['timestamp', 'severity', 'message']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'size': 0, 'aggs': {'log_count_per_source': {'terms': {'field': 'log_source', 'size': 100, 'order': {'_count': 'desc'}}}}}</t>
+    <t xml:space="preserve">{'query': {'range': {'timestamp': {'gte': '2016-08-01 15:00:00,000', 'lte': '2016-08-11 20:00:00,200'}}}, 'size': 10000}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PostgreSQL query without index
+The PostgreSQL query without an index scans the entire parsed_logs table to find the matching logs. This is a very inefficient operation, as it requires reading all of the rows in the table. For large datasets, such a query can result in slow execution times, especially if the table is not optimized for the range search on the 'timestamp' column.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PostgreSQL query with index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The PostgreSQL query with an index uses the index on the timestamp column to find the matching logs. This is a much more efficient operation, as it only requires reading the rows that match the index. The query optimizer can leverage this index to efficiently retrieve the rows falling within the specified range.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Elasticsearch query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The Elasticsearch query uses the range query to find all documents that were created between the specified timestamps. Elasticsearch is designed for fast indexing and querying of time-series data, and in this case, it efficiently executes the range query and returns the results quickly.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In this case, the Elasticsearch query is a better choice because it is faster and more efficient. The PostgreSQL query with an index is also a good choice, but it is not as fast as the Elasticsearch query. Elasticsearch, being specialized for distributed search and indexing, demonstrates exceptional performance even without explicit indexing. The PostgreSQL query without an index is very slow and should not be used for this use case.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -316,9 +402,6 @@
     FROM parsed_logs
     WHERE timestamp BETWEEN %s AND %s
     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'query': {'range': {'timestamp': {'gte': '2016-08-01 15:00:00,000', 'lte': '2016-08-11 20:00:00,200'}}}, 'size': 10000}</t>
   </si>
 </sst>
 </file>
@@ -367,7 +450,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -423,37 +505,49 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -473,189 +567,209 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="86.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="90.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="86.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="n">
+        <v>3.781154</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>3.781154</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="1" t="n">
+        <v>9.369116</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>91.026293</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>9.369116</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="1" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>142.521328</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>91.026293</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B7" s="1" t="n">
+        <v>84.629945</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="258.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B8" s="1" t="n">
+        <v>0.007057</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0403</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B9" s="1" t="n">
+        <v>91.930717</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>142.521328</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>84.629945</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B10" s="1" t="n">
+        <v>0.207874</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>3.781154</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>91.930717</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B11" s="1" t="n">
+        <v>112.317372</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B12" s="1" t="n">
+        <v>0.471837</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -665,109 +779,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.41"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.653337</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.007057</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>112.317372</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.471837</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.807874</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Logs/Log_Output.xlsx
+++ b/Logs/Log_Output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">Query</t>
   </si>
@@ -49,53 +49,99 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The Elasticsearch query uses aggregations to perform a date histogram on the 'timestamp' field with a 'calendar_interval' of 'day.' Within this aggregation, a filter is applied to count the occurrences where 'severity' is 'ERROR.' 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The Elasticsearch query uses the date_histogram aggregation to group the logs by day and the count aggregation to count the number of logs per day. The term filter is used to filter the results to only include errors.
+The Elasticsearch query uses the date_histogram aggregation to group the logs by day and the count aggregation to count the number of logs per day. The term filter is used to filter the results to only include errors.
 The execution time of the Elasticsearch query is very fast, at only 3.78 seconds. This is because Elasticsearch is optimized for aggregations and can quickly group and count large amounts of data.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">This SQL query calculates the count of log entries with severity 'ERROR' per day using the DATE_TRUNC function.  Indexing is used
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+This SQL query calculates the count of log entries with severity 'ERROR' per day using the DATE_TRUNC function.  Indexing is used
 The PostgreSQL query is more complex than the Elasticsearch query. It uses the DATE_TRUNC function to group the logs by day, the COUNT(*) function to count the number of logs per day, and the ORDER BY clause to order the results by day.
-The execution time of the PostgreSQL query is much slower than the Elasticsearch query, at 9.37 seconds. This is because PostgreSQL is not optimized for text search and has to scan the entire parsed_logs table to find the matching logs.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
+The execution time of the PostgreSQL query is much slower than the Elasticsearch query, at 9.37 seconds. This is because PostgreSQL is not optimized for text search and has to scan the entire parsed_logs table to find the matching logs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Query without index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The query without an index scans the entire parsed_logs table to find the matching logs. This is a very inefficient operation, as it requires reading all of the rows in the table. As a result, the execution time of the query is very slow, at 91.02 seconds.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Query with index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The query with an index uses the index on the timestamp column to find the matching logs. This is a much more efficient operation, as it only requires reading the rows that match the index. As a result, the execution time of the query is much faster, at 9.369 seconds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 In this case, the Elasticsearch query is a better choice because it is faster and more efficient. The PostgreSQL query is more complex and would only be necessary if you needed to perform more complex analysis on the logs.
-Benefits of using Elasticsearch for this use case:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Benefits of using Elasticsearch for this use case:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
     Real-time search: Elasticsearch can index and search data in real time, so you can get results as soon as they are entered.
     Scalability: Elasticsearch can be easily scaled to handle large amounts of data.
     Ease of use: Elasticsearch is relatively easy to set up and use.
 If need to perform more complex analysis on the logs, then could use PostgreSQL. However, it would need to consider the increased execution time and complexity.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -113,56 +159,6 @@
     <t xml:space="preserve">PostgreSQL (Without Index)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Query without index
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The query without an index scans the entire parsed_logs table to find the matching logs. This is a very inefficient operation, as it requires reading all of the rows in the table. As a result, the execution time of the query is very slow, at 91.02 seconds.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Query with index
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The query with an index uses the index on the timestamp column to find the matching logs. This is a much more efficient operation, as it only requires reading the rows that match the index. As a result, the execution time of the query is much faster, at 9.369 seconds.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">{'size': 0, 'query': {'range': {'timestamp': {'gte': '2015-08-01 15:00:00,000', 'lte': '2017-08-11 20:00:00,800'}}}, 'aggs': {'top_log_sources': {'terms': {'field': 'log_source', 'size': 5, 'order': {'_count': 'desc'}}}}}</t>
   </si>
   <si>
@@ -224,8 +220,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-PostgreSQL query without index
+      <t xml:space="preserve">PostgreSQL query without index
 </t>
     </r>
     <r>
@@ -239,6 +234,9 @@
       <t xml:space="preserve">
 The PostgreSQL query without an index scans the entire parsed_logs table to find the matching logs. This is a very inefficient operation, as it requires reading all of the rows in the table.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Elasticsearch query is a better choice because it is faster and more efficient. The PostgreSQL query with an index is also a good choice, but it is not as fast as the Elasticsearch query. The PostgreSQL query without an index is very slow and should not be used for this use case.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -251,9 +249,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Elasticsearch query is a better choice because it is faster and more efficient. The PostgreSQL query with an index is also a good choice, but it is not as fast as the Elasticsearch query. The PostgreSQL query without an index is very slow and should not be used for this use case.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{'size': 0, 'aggs': {'log_count_per_source': {'terms': {'field': 'log_source', 'size': 100, 'order': {'_count': 'desc'}}}}}</t>
   </si>
   <si>
@@ -327,6 +322,7 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -334,6 +330,17 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PostgreSQL query without index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 The PostgreSQL query without an index scans the entire parsed_logs table to find the matching logs. This is a very inefficient operation, as it requires reading all of the rows in the table. For large datasets, such a query can result in slow execution times, especially if the table is not optimized for the range search on the 'timestamp' column.
 </t>
     </r>
@@ -370,8 +377,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-Elasticsearch query
+      <t xml:space="preserve">Elasticsearch query
 </t>
     </r>
     <r>
@@ -402,6 +408,107 @@
     FROM parsed_logs
     WHERE timestamp BETWEEN %s AND %s
     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "query": { "match": { "message": "error exception"
+        }
+    },
+    "_source": ["timestamp", "severity", "message"]
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Elasticsearch query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The Elasticsearch query uses the match query to search for the words error and exception in the message field. The match query is a full-text search query, and it can quickly search the message field to find the matching logs. Elasticsearch is designed for fast text search and indexing, and its match query efficiently handles text searches with good performanceFor applications heavily focused on text search and indexing, Elasticsearch is the preferred choice due to its specialized features for efficient text-based queries.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PostgreSQL query using ILIKE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The PostgreSQL query using ILIKE uses the ILIKE operator to search for the words error and exception in the message column. The ILIKE operator is a case-insensitive string comparison operator. However, the use of ILIKE with wildcard '%' at the beginning of the search term can lead to slower performance, especially when dealing with large datasets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PostgreSQL query using tsquery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The PostgreSQL query using tsquery uses the to_tsquery function to convert the words error and exception into a tsquery object. A tsquery object is a special type of object that can be used to perform full-text search in PostgreSQL. The tsquery-based search is optimized for text searching, making it much faster than ILIKE, especially when using a GIN index on the tsvector column.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In this case, the Elasticsearch query is a better choice because it is faster and more efficient. 
+For applications heavily focused on text search and indexing, Elasticsearch is the preferred choice The PostgreSQL query using tsquery is also a good choice, but it is not as fast as the Elasticsearch query. The PostgreSQL query using ILIKE is very slow and should not be used for this use case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT timestamp, severity, message,file_name
+FROM parsed_logs
+WHERE message ILIKE '%error%' OR message ILIKE '%exception%';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL (Using ILIKE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT timestamp, severity, message, file_name
+FROM parsed_logs
+WHERE message_vector @@ to_tsquery('english', 'error | exception');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL (Using tsquery)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -448,6 +555,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -505,48 +619,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,205 +669,243 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="90.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="86.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="107.79"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
         <v>3.781154</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="0" t="n">
         <v>9.369116</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
         <v>91.026293</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="0" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.0403</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>142.521328</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>84.629945</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.007057</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>142.521328</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>91.930717</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.207874</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>112.317372</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>84.629945</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.471837</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="258.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0.007057</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.418717</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>91.930717</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>0.207874</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>112.317372</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0.471837</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-    </row>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>183.067246</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.78824</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D10:D12"/>
